--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业房屋建筑竣工价值.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业房屋建筑竣工价值.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:AQ65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,11 +539,116 @@
           <t>国有及国有控股建筑业企业餐饮用房屋竣工价值_累计值</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业仓库竣工价值</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业住宅房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业住宿和餐饮用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业其他商业及服务用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业其他未列明的房屋建筑物竣工价值</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业办公用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业医疗用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业厂房及建筑物竣工价值</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业厂房竣工价值</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业商业及服务用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业商务会展用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业商厦房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业宾馆用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业居民服务用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业房屋建筑竣工价值</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业批发和零售用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业教育用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业文化、体育和娱乐用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业科学研究用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业科研、教育和医疗用房屋竣工价值</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业餐饮用房屋竣工价值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -591,32 +696,77 @@
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>56.73</v>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>293.44</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>742.1799999999999</v>
+        <v>393.77</v>
       </c>
       <c r="D3" t="n">
-        <v>34.23</v>
+        <v>15.21</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>95.19</v>
+        <v>46.46</v>
       </c>
       <c r="G3" t="n">
-        <v>167.36</v>
+        <v>81.73</v>
       </c>
       <c r="H3" t="n">
-        <v>28.53</v>
+        <v>16.77</v>
       </c>
       <c r="I3" t="n">
-        <v>231.2</v>
+        <v>132.58</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -624,51 +774,96 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>19.21</v>
+        <v>17.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1504.58</v>
+        <v>794.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.15</v>
+        <v>27.2</v>
       </c>
       <c r="R3" t="n">
-        <v>90.02</v>
+        <v>39.84</v>
       </c>
       <c r="S3" t="n">
-        <v>36.35</v>
+        <v>16.3</v>
       </c>
       <c r="T3" t="n">
-        <v>14.16</v>
+        <v>7.1</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>254.27</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>75.85000000000002</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>500.72</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>393.77</v>
+        <v>742.1799999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>15.21</v>
+        <v>34.23</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>46.46</v>
+        <v>95.19</v>
       </c>
       <c r="G4" t="n">
-        <v>81.73</v>
+        <v>167.36</v>
       </c>
       <c r="H4" t="n">
-        <v>16.77</v>
+        <v>28.53</v>
       </c>
       <c r="I4" t="n">
-        <v>132.58</v>
+        <v>231.2</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -676,30 +871,75 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>17.2</v>
+        <v>19.21</v>
       </c>
       <c r="P4" t="n">
-        <v>794.16</v>
+        <v>1504.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.2</v>
+        <v>46.15</v>
       </c>
       <c r="R4" t="n">
-        <v>39.84</v>
+        <v>90.02</v>
       </c>
       <c r="S4" t="n">
-        <v>16.3</v>
+        <v>36.35</v>
       </c>
       <c r="T4" t="n">
-        <v>7.1</v>
+        <v>14.16</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>348.41</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>85.63000000000001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>98.61999999999998</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>2.010000000000002</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>710.42</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>50.17999999999999</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -747,11 +987,56 @@
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>760.7800000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>71.17000000000002</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>216.08</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>312.08</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1623.44</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>88.17</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -799,32 +1084,77 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>136.72</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34.86</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>295.85</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>747.5</v>
+        <v>418.63</v>
       </c>
       <c r="D7" t="n">
-        <v>46.26</v>
+        <v>24.69</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>74.15000000000001</v>
+        <v>35.91</v>
       </c>
       <c r="G7" t="n">
-        <v>205.79</v>
+        <v>118.88</v>
       </c>
       <c r="H7" t="n">
-        <v>24.26</v>
+        <v>11.75</v>
       </c>
       <c r="I7" t="n">
-        <v>255.3</v>
+        <v>153.18</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -832,51 +1162,96 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>32.29</v>
+        <v>16.58</v>
       </c>
       <c r="P7" t="n">
-        <v>1565.74</v>
+        <v>872.9400000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>37.56</v>
+        <v>21.77</v>
       </c>
       <c r="R7" t="n">
-        <v>81.20999999999999</v>
+        <v>43.95</v>
       </c>
       <c r="S7" t="n">
-        <v>49.49</v>
+        <v>21.9</v>
       </c>
       <c r="T7" t="n">
-        <v>11.93</v>
+        <v>5.72</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>281.91</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>84.02</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>84.93000000000001</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>8.829999999999998</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>577.09</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>418.63</v>
+        <v>747.5</v>
       </c>
       <c r="D8" t="n">
-        <v>24.69</v>
+        <v>46.26</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>35.91</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>118.88</v>
+        <v>205.79</v>
       </c>
       <c r="H8" t="n">
-        <v>11.75</v>
+        <v>24.26</v>
       </c>
       <c r="I8" t="n">
-        <v>153.18</v>
+        <v>255.3</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -884,30 +1259,75 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>16.58</v>
+        <v>32.29</v>
       </c>
       <c r="P8" t="n">
-        <v>872.9400000000001</v>
+        <v>1565.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.77</v>
+        <v>37.56</v>
       </c>
       <c r="R8" t="n">
-        <v>43.95</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>21.9</v>
+        <v>49.49</v>
       </c>
       <c r="T8" t="n">
-        <v>5.72</v>
+        <v>11.93</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>328.87</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>38.24000000000001</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>86.91</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>102.12</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>692.8</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>37.25999999999999</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -955,11 +1375,56 @@
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>910.0899999999999</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>27.97000000000001</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>114.52</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>223.86</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>260.92</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>42.61000000000001</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1807.58</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>76.13000000000001</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>68.63</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1007,32 +1472,77 @@
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>198.23</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>373.27</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>948.11</v>
+        <v>560.54</v>
       </c>
       <c r="D11" t="n">
-        <v>63.6</v>
+        <v>35.14</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>58.38</v>
+        <v>29.14</v>
       </c>
       <c r="G11" t="n">
-        <v>253.72</v>
+        <v>148.67</v>
       </c>
       <c r="H11" t="n">
-        <v>31.65</v>
+        <v>18.63</v>
       </c>
       <c r="I11" t="n">
-        <v>290.26</v>
+        <v>150.94</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1040,51 +1550,96 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>22.36</v>
+        <v>14.78</v>
       </c>
       <c r="P11" t="n">
-        <v>1890.39</v>
+        <v>1078.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>47.43</v>
+        <v>35.15</v>
       </c>
       <c r="R11" t="n">
-        <v>76.36</v>
+        <v>39.66</v>
       </c>
       <c r="S11" t="n">
-        <v>83.44</v>
+        <v>39.01</v>
       </c>
       <c r="T11" t="n">
-        <v>15.08</v>
+        <v>6.39</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>362.3099999999999</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>96.48999999999998</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>704.78</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>560.54</v>
+        <v>948.11</v>
       </c>
       <c r="D12" t="n">
-        <v>35.14</v>
+        <v>63.6</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>29.14</v>
+        <v>58.38</v>
       </c>
       <c r="G12" t="n">
-        <v>148.67</v>
+        <v>253.72</v>
       </c>
       <c r="H12" t="n">
-        <v>18.63</v>
+        <v>31.65</v>
       </c>
       <c r="I12" t="n">
-        <v>150.94</v>
+        <v>290.26</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1092,30 +1647,75 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>14.78</v>
+        <v>22.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1078.05</v>
+        <v>1890.39</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.15</v>
+        <v>47.43</v>
       </c>
       <c r="R12" t="n">
-        <v>39.66</v>
+        <v>76.36</v>
       </c>
       <c r="S12" t="n">
-        <v>39.01</v>
+        <v>83.44</v>
       </c>
       <c r="T12" t="n">
-        <v>6.39</v>
+        <v>15.08</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>387.5700000000001</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>105.05</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>139.32</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>812.3400000000001</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8.690000000000001</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1163,11 +1763,56 @@
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>946.15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>54.66999999999999</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>80.45000000000002</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>213.62</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>42.81</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>332</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1905.79</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>77.13000000000001</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>72.37</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1215,32 +1860,77 @@
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>206.06</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>64.53</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>386.29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>930.03</v>
+        <v>560.71</v>
       </c>
       <c r="D15" t="n">
-        <v>31.86</v>
+        <v>14.19</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>130.83</v>
+        <v>53.42</v>
       </c>
       <c r="G15" t="n">
-        <v>236.56</v>
+        <v>122.38</v>
       </c>
       <c r="H15" t="n">
-        <v>24.9</v>
+        <v>18.9</v>
       </c>
       <c r="I15" t="n">
-        <v>329.43</v>
+        <v>181.38</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1248,51 +1938,96 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>53.51</v>
+        <v>24.97</v>
       </c>
       <c r="P15" t="n">
-        <v>1966.94</v>
+        <v>1105.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.94</v>
+        <v>41.9</v>
       </c>
       <c r="R15" t="n">
-        <v>88.56999999999999</v>
+        <v>46.22</v>
       </c>
       <c r="S15" t="n">
-        <v>59.82</v>
+        <v>32.52</v>
       </c>
       <c r="T15" t="n">
-        <v>18.5</v>
+        <v>8.67</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>354.65</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>42.18</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>84.78</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>116.85</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>718.96</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>560.71</v>
+        <v>930.03</v>
       </c>
       <c r="D16" t="n">
-        <v>14.19</v>
+        <v>31.86</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>53.42</v>
+        <v>130.83</v>
       </c>
       <c r="G16" t="n">
-        <v>122.38</v>
+        <v>236.56</v>
       </c>
       <c r="H16" t="n">
-        <v>18.9</v>
+        <v>24.9</v>
       </c>
       <c r="I16" t="n">
-        <v>181.38</v>
+        <v>329.43</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1300,30 +2035,75 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>24.97</v>
+        <v>53.51</v>
       </c>
       <c r="P16" t="n">
-        <v>1105.25</v>
+        <v>1966.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.9</v>
+        <v>62.94</v>
       </c>
       <c r="R16" t="n">
-        <v>46.22</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>32.52</v>
+        <v>59.82</v>
       </c>
       <c r="T16" t="n">
-        <v>8.67</v>
+        <v>18.5</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>369.3199999999999</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>77.41000000000001</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>114.18</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>148.05</v>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>861.6900000000001</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>42.34999999999999</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1371,11 +2151,56 @@
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>1202.62</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>127.56</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>246.38</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>49.09</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>337.1199999999999</v>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2277.13</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>56.72</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>94.74000000000001</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1423,32 +2248,77 @@
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>230.63</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>80.33</v>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>475.95</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>994.34</v>
+        <v>537.55</v>
       </c>
       <c r="D19" t="n">
-        <v>61.1</v>
+        <v>36.74</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>136.29</v>
+        <v>96.52</v>
       </c>
       <c r="G19" t="n">
-        <v>287.38</v>
+        <v>153.79</v>
       </c>
       <c r="H19" t="n">
-        <v>43.73</v>
+        <v>20.09</v>
       </c>
       <c r="I19" t="n">
-        <v>354.12</v>
+        <v>179.22</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1456,51 +2326,96 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>56.44</v>
+        <v>42.1</v>
       </c>
       <c r="P19" t="n">
-        <v>2219.23</v>
+        <v>1197.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.52</v>
+        <v>32.03</v>
       </c>
       <c r="R19" t="n">
-        <v>96.77</v>
+        <v>43.74</v>
       </c>
       <c r="S19" t="n">
-        <v>131.83</v>
+        <v>44.98</v>
       </c>
       <c r="T19" t="n">
-        <v>20.71</v>
+        <v>11.01</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>306.92</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>77.72999999999999</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>94.28999999999999</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>98.89</v>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>721.8299999999999</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>537.55</v>
+        <v>994.34</v>
       </c>
       <c r="D20" t="n">
-        <v>36.74</v>
+        <v>61.1</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>96.52</v>
+        <v>136.29</v>
       </c>
       <c r="G20" t="n">
-        <v>153.79</v>
+        <v>287.38</v>
       </c>
       <c r="H20" t="n">
-        <v>20.09</v>
+        <v>43.73</v>
       </c>
       <c r="I20" t="n">
-        <v>179.22</v>
+        <v>354.12</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1508,30 +2423,75 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>42.1</v>
+        <v>56.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1197.78</v>
+        <v>2219.23</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.03</v>
+        <v>36.52</v>
       </c>
       <c r="R20" t="n">
-        <v>43.74</v>
+        <v>96.77</v>
       </c>
       <c r="S20" t="n">
-        <v>44.98</v>
+        <v>131.83</v>
       </c>
       <c r="T20" t="n">
-        <v>11.01</v>
+        <v>20.71</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>456.7900000000001</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>133.59</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1021.45</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>4.490000000000002</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>53.02999999999999</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>86.85000000000002</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1579,11 +2539,56 @@
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>1260.45</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>178</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>400.4399999999999</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>33.99000000000001</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2467.18</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>93.95</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>66.42999999999998</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1631,32 +2636,77 @@
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>258.82</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>61.79</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>83.54000000000001</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>540.05</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1362.79</v>
+        <v>719.91</v>
       </c>
       <c r="D23" t="n">
-        <v>66.83</v>
+        <v>27.26</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>242.64</v>
+        <v>89.61</v>
       </c>
       <c r="G23" t="n">
-        <v>315.06</v>
+        <v>153.76</v>
       </c>
       <c r="H23" t="n">
-        <v>58.68</v>
+        <v>29.81</v>
       </c>
       <c r="I23" t="n">
-        <v>436.41</v>
+        <v>235.75</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1664,51 +2714,96 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>32.54</v>
+        <v>19.51</v>
       </c>
       <c r="P23" t="n">
-        <v>2855.47</v>
+        <v>1443.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.94</v>
+        <v>38.71</v>
       </c>
       <c r="R23" t="n">
-        <v>123.1</v>
+        <v>63.29</v>
       </c>
       <c r="S23" t="n">
-        <v>136.05</v>
+        <v>56.72</v>
       </c>
       <c r="T23" t="n">
-        <v>15.42</v>
+        <v>8.92</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>461.09</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5.400000000000002</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>51.52</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>91.97</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>152.21</v>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>903.2</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>719.91</v>
+        <v>1362.79</v>
       </c>
       <c r="D24" t="n">
-        <v>27.26</v>
+        <v>66.83</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>89.61</v>
+        <v>242.64</v>
       </c>
       <c r="G24" t="n">
-        <v>153.76</v>
+        <v>315.06</v>
       </c>
       <c r="H24" t="n">
-        <v>29.81</v>
+        <v>58.68</v>
       </c>
       <c r="I24" t="n">
-        <v>235.75</v>
+        <v>436.41</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1716,30 +2811,75 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>19.51</v>
+        <v>32.54</v>
       </c>
       <c r="P24" t="n">
-        <v>1443.25</v>
+        <v>2855.47</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.71</v>
+        <v>65.94</v>
       </c>
       <c r="R24" t="n">
-        <v>63.29</v>
+        <v>123.1</v>
       </c>
       <c r="S24" t="n">
-        <v>56.72</v>
+        <v>136.05</v>
       </c>
       <c r="T24" t="n">
-        <v>8.92</v>
+        <v>15.42</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>642.88</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>39.56999999999999</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="n">
+        <v>153.03</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>200.66</v>
+      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1412.22</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>59.81</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>79.33000000000001</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1787,11 +2927,56 @@
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>1538.69</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>290.9300000000001</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>284.03</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>70.10999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>419.9999999999999</v>
+      </c>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="n">
+        <v>49.21</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2985.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>111.51</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>56.23999999999998</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1851,139 +3036,310 @@
       <c r="V26" t="n">
         <v>0.36</v>
       </c>
+      <c r="W26" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="X26" t="n">
+        <v>344.77</v>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>58.79</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>98.34999999999999</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>85.81</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>48.91</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="n">
+        <v>707.74</v>
+      </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>58.51</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.05</v>
+        <v>17.27</v>
       </c>
       <c r="C27" t="n">
-        <v>1955.94</v>
+        <v>1064.72</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>85.02</v>
+        <v>47.96</v>
       </c>
       <c r="F27" t="n">
-        <v>152.28</v>
+        <v>104.74</v>
       </c>
       <c r="G27" t="n">
-        <v>310.99</v>
+        <v>179.71</v>
       </c>
       <c r="H27" t="n">
-        <v>87.09</v>
+        <v>42.05</v>
       </c>
       <c r="I27" t="n">
-        <v>448.22</v>
+        <v>274.5</v>
       </c>
       <c r="J27" t="n">
-        <v>376.18</v>
+        <v>236.73</v>
       </c>
       <c r="K27" t="n">
-        <v>317.83</v>
+        <v>212.48</v>
       </c>
       <c r="L27" t="n">
-        <v>22.21</v>
+        <v>27.06</v>
       </c>
       <c r="M27" t="n">
-        <v>151.19</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>54.55</v>
+        <v>34.83</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>3548.41</v>
+        <v>2022.95</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>127.61</v>
+        <v>62.22</v>
       </c>
       <c r="S27" t="n">
-        <v>82.7</v>
+        <v>44.64</v>
       </c>
       <c r="T27" t="n">
-        <v>39.7</v>
+        <v>20.62</v>
       </c>
       <c r="U27" t="n">
-        <v>254.4</v>
+        <v>124.88</v>
       </c>
       <c r="V27" t="n">
-        <v>4.86</v>
+        <v>3.24</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8.059999999999999</v>
+      </c>
+      <c r="X27" t="n">
+        <v>719.95</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>62.46999999999999</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>120.92</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>176.15</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>150.92</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>125.78</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>50.49000000000001</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="n">
+        <v>1315.21</v>
+      </c>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="n">
+        <v>34.48999999999999</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.27</v>
+        <v>26.05</v>
       </c>
       <c r="C28" t="n">
-        <v>1064.72</v>
+        <v>1955.94</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>47.96</v>
+        <v>85.02</v>
       </c>
       <c r="F28" t="n">
-        <v>104.74</v>
+        <v>152.28</v>
       </c>
       <c r="G28" t="n">
-        <v>179.71</v>
+        <v>310.99</v>
       </c>
       <c r="H28" t="n">
-        <v>42.05</v>
+        <v>87.09</v>
       </c>
       <c r="I28" t="n">
-        <v>274.5</v>
+        <v>448.22</v>
       </c>
       <c r="J28" t="n">
-        <v>236.73</v>
+        <v>376.18</v>
       </c>
       <c r="K28" t="n">
-        <v>212.48</v>
+        <v>317.83</v>
       </c>
       <c r="L28" t="n">
-        <v>27.06</v>
+        <v>22.21</v>
       </c>
       <c r="M28" t="n">
-        <v>99.40000000000001</v>
+        <v>151.19</v>
       </c>
       <c r="N28" t="n">
-        <v>34.83</v>
+        <v>54.55</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>2022.95</v>
+        <v>3548.41</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>62.22</v>
+        <v>127.61</v>
       </c>
       <c r="S28" t="n">
-        <v>44.64</v>
+        <v>82.7</v>
       </c>
       <c r="T28" t="n">
-        <v>20.62</v>
+        <v>39.7</v>
       </c>
       <c r="U28" t="n">
-        <v>124.88</v>
+        <v>254.4</v>
       </c>
       <c r="V28" t="n">
-        <v>3.24</v>
+        <v>4.86</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8.780000000000001</v>
+      </c>
+      <c r="X28" t="n">
+        <v>891.22</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
+        <v>37.06</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>47.54000000000001</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>131.28</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>45.04000000000001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>173.72</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>139.45</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>105.35</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>51.78999999999999</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="n">
+        <v>1525.46</v>
+      </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>38.06</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>129.52</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2043,11 +3399,68 @@
       <c r="V29" t="n">
         <v>17.99</v>
       </c>
+      <c r="W29" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2296.34</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
+        <v>133.62</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>276.4400000000001</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>319.29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>571.88</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>444.19</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>383.89</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>74.91</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>120.03</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="n">
+        <v>4186.900000000001</v>
+      </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="n">
+        <v>115.98</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>87.83999999999999</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>42.70999999999999</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>229.51</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>13.13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2107,139 +3520,310 @@
       <c r="V30" t="n">
         <v>0.91</v>
       </c>
+      <c r="W30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>497.53</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>63.42</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>85.63</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>93.28</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>37.76</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="n">
+        <v>845.95</v>
+      </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.39</v>
+        <v>17.84</v>
       </c>
       <c r="C31" t="n">
-        <v>2691.24</v>
+        <v>1522.05</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>132.02</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>191.44</v>
+        <v>134.59</v>
       </c>
       <c r="G31" t="n">
-        <v>359.83</v>
+        <v>221.44</v>
       </c>
       <c r="H31" t="n">
-        <v>88.15000000000001</v>
+        <v>40.86</v>
       </c>
       <c r="I31" t="n">
-        <v>449.45</v>
+        <v>279.24</v>
       </c>
       <c r="J31" t="n">
-        <v>382.88</v>
+        <v>238.8</v>
       </c>
       <c r="K31" t="n">
-        <v>414.33</v>
+        <v>253.42</v>
       </c>
       <c r="L31" t="n">
-        <v>49.34</v>
+        <v>31.46</v>
       </c>
       <c r="M31" t="n">
-        <v>155.15</v>
+        <v>111.81</v>
       </c>
       <c r="N31" t="n">
-        <v>69</v>
+        <v>25.16</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>4474.32</v>
+        <v>2592.06</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>144.13</v>
+        <v>61.17</v>
       </c>
       <c r="S31" t="n">
-        <v>53.66</v>
+        <v>29.35</v>
       </c>
       <c r="T31" t="n">
-        <v>50.69</v>
+        <v>32.1</v>
       </c>
       <c r="U31" t="n">
-        <v>282.97</v>
+        <v>134.13</v>
       </c>
       <c r="V31" t="n">
-        <v>8.81</v>
+        <v>2.84</v>
+      </c>
+      <c r="W31" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1024.52</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
+        <v>54.58000000000001</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>106.73</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>158.02</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>179.49</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>153.17</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>160.14</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>74.05000000000001</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="n">
+        <v>1746.11</v>
+      </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>94.13999999999999</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.84</v>
+        <v>31.39</v>
       </c>
       <c r="C32" t="n">
-        <v>1522.05</v>
+        <v>2691.24</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>82.15000000000001</v>
+        <v>132.02</v>
       </c>
       <c r="F32" t="n">
-        <v>134.59</v>
+        <v>191.44</v>
       </c>
       <c r="G32" t="n">
-        <v>221.44</v>
+        <v>359.83</v>
       </c>
       <c r="H32" t="n">
-        <v>40.86</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>279.24</v>
+        <v>449.45</v>
       </c>
       <c r="J32" t="n">
-        <v>238.8</v>
+        <v>382.88</v>
       </c>
       <c r="K32" t="n">
-        <v>253.42</v>
+        <v>414.33</v>
       </c>
       <c r="L32" t="n">
-        <v>31.46</v>
+        <v>49.34</v>
       </c>
       <c r="M32" t="n">
-        <v>111.81</v>
+        <v>155.15</v>
       </c>
       <c r="N32" t="n">
-        <v>25.16</v>
+        <v>69</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>2592.06</v>
+        <v>4474.32</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>61.17</v>
+        <v>144.13</v>
       </c>
       <c r="S32" t="n">
-        <v>29.35</v>
+        <v>53.66</v>
       </c>
       <c r="T32" t="n">
-        <v>32.1</v>
+        <v>50.69</v>
       </c>
       <c r="U32" t="n">
-        <v>134.13</v>
+        <v>282.97</v>
       </c>
       <c r="V32" t="n">
-        <v>2.84</v>
+        <v>8.81</v>
+      </c>
+      <c r="W32" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1169.19</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>56.84999999999999</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>138.39</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>47.29000000000001</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>170.21</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>144.08</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>160.91</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="n">
+        <v>1882.26</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>148.84</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>5.970000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2299,11 +3883,68 @@
       <c r="V33" t="n">
         <v>27.3</v>
       </c>
+      <c r="W33" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3175.8</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
+        <v>180.03</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>165.11</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>467.7400000000001</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>72.94</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>594.3299999999999</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>458.78</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>677.53</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>366.39</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>63.11000000000001</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="n">
+        <v>5545.050000000001</v>
+      </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="n">
+        <v>170.89</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>59.85000000000001</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>303.6799999999999</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>18.49</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2363,139 +4004,310 @@
       <c r="V34" t="n">
         <v>2.3</v>
       </c>
+      <c r="W34" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="X34" t="n">
+        <v>674.21</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>59.52</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>118.58</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>104.16</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="n">
+        <v>1034.82</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.87</v>
+        <v>13.45</v>
       </c>
       <c r="C35" t="n">
-        <v>3223.04</v>
+        <v>1910.75</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>154.83</v>
+        <v>77.91</v>
       </c>
       <c r="F35" t="n">
-        <v>187.27</v>
+        <v>86.64</v>
       </c>
       <c r="G35" t="n">
-        <v>431.22</v>
+        <v>195.51</v>
       </c>
       <c r="H35" t="n">
-        <v>106.47</v>
+        <v>45.47</v>
       </c>
       <c r="I35" t="n">
-        <v>534.5</v>
+        <v>349.77</v>
       </c>
       <c r="J35" t="n">
-        <v>455.39</v>
+        <v>303.45</v>
       </c>
       <c r="K35" t="n">
-        <v>539.9299999999999</v>
+        <v>286.45</v>
       </c>
       <c r="L35" t="n">
-        <v>56.99</v>
+        <v>35.91</v>
       </c>
       <c r="M35" t="n">
-        <v>235.4</v>
+        <v>120.54</v>
       </c>
       <c r="N35" t="n">
-        <v>82.06</v>
+        <v>44.72</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>5357.01</v>
+        <v>3049.86</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>167.63</v>
+        <v>75.52</v>
       </c>
       <c r="S35" t="n">
-        <v>98.47</v>
+        <v>64.3</v>
       </c>
       <c r="T35" t="n">
-        <v>38.6</v>
+        <v>21.99</v>
       </c>
       <c r="U35" t="n">
-        <v>312.71</v>
+        <v>142.99</v>
       </c>
       <c r="V35" t="n">
-        <v>10.65</v>
+        <v>7.38</v>
+      </c>
+      <c r="W35" t="n">
+        <v>9.009999999999998</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1236.54</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>63.88</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>135.99</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>231.19</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>199.29</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>206.62</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="n">
+        <v>2015.04</v>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="n">
+        <v>51.00999999999999</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>8.849999999999998</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>85.69000000000001</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>5.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13.45</v>
+        <v>29.87</v>
       </c>
       <c r="C36" t="n">
-        <v>1910.75</v>
+        <v>3223.04</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>77.91</v>
+        <v>154.83</v>
       </c>
       <c r="F36" t="n">
-        <v>86.64</v>
+        <v>187.27</v>
       </c>
       <c r="G36" t="n">
-        <v>195.51</v>
+        <v>431.22</v>
       </c>
       <c r="H36" t="n">
-        <v>45.47</v>
+        <v>106.47</v>
       </c>
       <c r="I36" t="n">
-        <v>349.77</v>
+        <v>534.5</v>
       </c>
       <c r="J36" t="n">
-        <v>303.45</v>
+        <v>455.39</v>
       </c>
       <c r="K36" t="n">
-        <v>286.45</v>
+        <v>539.9299999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>35.91</v>
+        <v>56.99</v>
       </c>
       <c r="M36" t="n">
-        <v>120.54</v>
+        <v>235.4</v>
       </c>
       <c r="N36" t="n">
-        <v>44.72</v>
+        <v>82.06</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>3049.86</v>
+        <v>5357.01</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>75.52</v>
+        <v>167.63</v>
       </c>
       <c r="S36" t="n">
-        <v>64.3</v>
+        <v>98.47</v>
       </c>
       <c r="T36" t="n">
-        <v>21.99</v>
+        <v>38.6</v>
       </c>
       <c r="U36" t="n">
-        <v>142.99</v>
+        <v>312.71</v>
       </c>
       <c r="V36" t="n">
-        <v>7.38</v>
+        <v>10.65</v>
+      </c>
+      <c r="W36" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1312.29</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>76.92000000000002</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>100.63</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>235.71</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>61</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>184.73</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>151.94</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>253.48</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>21.08000000000001</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="n">
+        <v>2307.15</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="n">
+        <v>92.11</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>169.72</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2555,11 +4367,68 @@
       <c r="V37" t="n">
         <v>23.54</v>
       </c>
+      <c r="W37" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3370.08</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>166.47</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>277.8</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>391.62</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>87.74000000000001</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>575.5999999999999</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>447.29</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>471.71</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>19.02999999999999</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>78.07999999999998</v>
+      </c>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="n">
+        <v>5482.27</v>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>36.29</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>274.01</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2619,139 +4488,310 @@
       <c r="V38" t="n">
         <v>8.58</v>
       </c>
+      <c r="W38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X38" t="n">
+        <v>641.36</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>50.06</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>122.21</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>102.34</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>131.02</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="n">
+        <v>1110.37</v>
+      </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>61.21</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>8.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.86</v>
+        <v>23.84</v>
       </c>
       <c r="C39" t="n">
-        <v>3406.86</v>
+        <v>1934.18</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>178.82</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>213.36</v>
+        <v>132.38</v>
       </c>
       <c r="G39" t="n">
-        <v>523.52</v>
+        <v>275.02</v>
       </c>
       <c r="H39" t="n">
-        <v>75.81999999999999</v>
+        <v>45.43</v>
       </c>
       <c r="I39" t="n">
-        <v>506.88</v>
+        <v>321.07</v>
       </c>
       <c r="J39" t="n">
-        <v>406.99</v>
+        <v>251.05</v>
       </c>
       <c r="K39" t="n">
-        <v>658.1</v>
+        <v>379.55</v>
       </c>
       <c r="L39" t="n">
-        <v>111.81</v>
+        <v>91.67</v>
       </c>
       <c r="M39" t="n">
-        <v>271.31</v>
+        <v>131.35</v>
       </c>
       <c r="N39" t="n">
-        <v>79.03</v>
+        <v>63.15</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>5741.45</v>
+        <v>3272.36</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>177.64</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="S39" t="n">
-        <v>104.26</v>
+        <v>56.88</v>
       </c>
       <c r="T39" t="n">
-        <v>45.15</v>
+        <v>29.47</v>
       </c>
       <c r="U39" t="n">
-        <v>298.61</v>
+        <v>149.43</v>
       </c>
       <c r="V39" t="n">
-        <v>17.14</v>
+        <v>12.48</v>
+      </c>
+      <c r="W39" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1292.82</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
+        <v>44.72000000000001</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>82.31999999999999</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>194.02</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>198.86</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>148.71</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>248.53</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>68.17</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>91.37</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="n">
+        <v>2161.99</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="n">
+        <v>47.11000000000001</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>37.13</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>88.22</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.84</v>
+        <v>29.86</v>
       </c>
       <c r="C40" t="n">
-        <v>1934.18</v>
+        <v>3406.86</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>80.90000000000001</v>
+        <v>178.82</v>
       </c>
       <c r="F40" t="n">
-        <v>132.38</v>
+        <v>213.36</v>
       </c>
       <c r="G40" t="n">
-        <v>275.02</v>
+        <v>523.52</v>
       </c>
       <c r="H40" t="n">
-        <v>45.43</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>321.07</v>
+        <v>506.88</v>
       </c>
       <c r="J40" t="n">
-        <v>251.05</v>
+        <v>406.99</v>
       </c>
       <c r="K40" t="n">
-        <v>379.55</v>
+        <v>658.1</v>
       </c>
       <c r="L40" t="n">
-        <v>91.67</v>
+        <v>111.81</v>
       </c>
       <c r="M40" t="n">
-        <v>131.35</v>
+        <v>271.31</v>
       </c>
       <c r="N40" t="n">
-        <v>63.15</v>
+        <v>79.03</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>3272.36</v>
+        <v>5741.45</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>74.54000000000001</v>
+        <v>177.64</v>
       </c>
       <c r="S40" t="n">
-        <v>56.88</v>
+        <v>104.26</v>
       </c>
       <c r="T40" t="n">
-        <v>29.47</v>
+        <v>45.15</v>
       </c>
       <c r="U40" t="n">
-        <v>149.43</v>
+        <v>298.61</v>
       </c>
       <c r="V40" t="n">
-        <v>12.48</v>
+        <v>17.14</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1472.68</v>
+      </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
+        <v>97.91999999999999</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>80.98000000000002</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>30.38999999999999</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>185.81</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>155.94</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>278.55</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>139.96</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="n">
+        <v>2469.09</v>
+      </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>47.38</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>149.18</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>4.66</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2811,11 +4851,68 @@
       <c r="V41" t="n">
         <v>22.91</v>
       </c>
+      <c r="W41" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3822.03</v>
+      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
+        <v>173.94</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>377.41</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>536.98</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>130.96</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>570.88</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>384.52</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>707.7199999999999</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>34.82999999999998</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>426.84</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="n">
+        <v>6615.48</v>
+      </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="n">
+        <v>226.11</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>173.92</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>398.8</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>5.77</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2875,139 +4972,310 @@
       <c r="V42" t="n">
         <v>3.8</v>
       </c>
+      <c r="W42" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="X42" t="n">
+        <v>833.51</v>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>108.98</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>99.81</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>85.01000000000001</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>155.02</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>80.52</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="n">
+        <v>1371.22</v>
+      </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="n">
+        <v>62.14</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>108.89</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.39</v>
+        <v>17.23</v>
       </c>
       <c r="C43" t="n">
-        <v>3904.9</v>
+        <v>2366.44</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>219.09</v>
+        <v>101.8</v>
       </c>
       <c r="F43" t="n">
-        <v>213.439999999999</v>
+        <v>140.45</v>
       </c>
       <c r="G43" t="n">
-        <v>567.11</v>
+        <v>333.5</v>
       </c>
       <c r="H43" t="n">
-        <v>96.9399999999999</v>
+        <v>60.17</v>
       </c>
       <c r="I43" t="n">
-        <v>467.41</v>
+        <v>277.12</v>
       </c>
       <c r="J43" t="n">
-        <v>384.389999999999</v>
+        <v>224.49</v>
       </c>
       <c r="K43" t="n">
-        <v>855.0700000000001</v>
+        <v>548.58</v>
       </c>
       <c r="L43" t="n">
-        <v>74.9399999999999</v>
+        <v>44.34</v>
       </c>
       <c r="M43" t="n">
-        <v>428.11</v>
+        <v>300.15</v>
       </c>
       <c r="N43" t="n">
-        <v>120.06</v>
+        <v>93.89</v>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
-        <v>6658.86</v>
+        <v>4061.46</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>261.05</v>
+        <v>140.28</v>
       </c>
       <c r="S43" t="n">
-        <v>162.68</v>
+        <v>121.42</v>
       </c>
       <c r="T43" t="n">
-        <v>86.8799999999999</v>
+        <v>56.27</v>
       </c>
       <c r="U43" t="n">
-        <v>444.879999999999</v>
+        <v>256.72</v>
       </c>
       <c r="V43" t="n">
-        <v>12.8599999999999</v>
+        <v>8.4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1532.93</v>
+      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
+        <v>79.33</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>104.55</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>224.52</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>46.74</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>177.31</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>139.48</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>393.5600000000001</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>219.63</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>59.43</v>
+      </c>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="n">
+        <v>2690.24</v>
+      </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="n">
+        <v>78.14</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>147.83</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>4.600000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>17.23</v>
+        <v>43.39</v>
       </c>
       <c r="C44" t="n">
-        <v>2366.44</v>
+        <v>3904.9</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>101.8</v>
+        <v>219.09</v>
       </c>
       <c r="F44" t="n">
-        <v>140.45</v>
+        <v>213.439999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>333.5</v>
+        <v>567.11</v>
       </c>
       <c r="H44" t="n">
-        <v>60.17</v>
+        <v>96.9399999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>277.12</v>
+        <v>467.41</v>
       </c>
       <c r="J44" t="n">
-        <v>224.49</v>
+        <v>384.389999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>548.58</v>
+        <v>855.0700000000001</v>
       </c>
       <c r="L44" t="n">
-        <v>44.34</v>
+        <v>74.9399999999999</v>
       </c>
       <c r="M44" t="n">
-        <v>300.15</v>
+        <v>428.11</v>
       </c>
       <c r="N44" t="n">
-        <v>93.89</v>
+        <v>120.06</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>4061.46</v>
+        <v>6658.86</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>140.28</v>
+        <v>261.05</v>
       </c>
       <c r="S44" t="n">
-        <v>121.42</v>
+        <v>162.68</v>
       </c>
       <c r="T44" t="n">
-        <v>56.27</v>
+        <v>86.8799999999999</v>
       </c>
       <c r="U44" t="n">
-        <v>256.72</v>
+        <v>444.879999999999</v>
       </c>
       <c r="V44" t="n">
-        <v>8.4</v>
+        <v>12.8599999999999</v>
+      </c>
+      <c r="W44" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1538.46</v>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>117.29</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>72.98999999999901</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>233.61</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>36.7699999999999</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>190.29</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>159.899999999999</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>306.49</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>30.59999999999989</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>127.96</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="n">
+        <v>2597.4</v>
+      </c>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="n">
+        <v>120.77</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>41.26000000000001</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>30.60999999999989</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>188.1599999999989</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>4.4599999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3067,11 +5335,68 @@
       <c r="V45" t="n">
         <v>23.43</v>
       </c>
+      <c r="W45" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3756.3</v>
+      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
+        <v>186.21</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>275.350000000001</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>545.16</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>94.14000000000011</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>522.01</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>411.2800000000009</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>904.5299999999999</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>153.1200000000001</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>437.33</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>117.31</v>
+      </c>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="n">
+        <v>6542.900000000001</v>
+      </c>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="n">
+        <v>180.67</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>172.95</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>49.73000000000012</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>324.530000000001</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>10.5700000000001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3131,139 +5456,310 @@
       <c r="V46" t="n">
         <v>0.8</v>
       </c>
+      <c r="W46" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1018.14</v>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="n">
+        <v>46.19</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>117.77</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>87.20999999999999</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>50.37</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>76.02</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="n">
+        <v>1690.77</v>
+      </c>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="n">
+        <v>52.76</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>94.11</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>40.24</v>
+        <v>25.39</v>
       </c>
       <c r="C47" t="n">
-        <v>4211.76</v>
+        <v>2489.64</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>232.04</v>
+        <v>139.69</v>
       </c>
       <c r="F47" t="n">
-        <v>267.99</v>
+        <v>186.86</v>
       </c>
       <c r="G47" t="n">
-        <v>625.46</v>
+        <v>384.26</v>
       </c>
       <c r="H47" t="n">
-        <v>118.93</v>
+        <v>55.79</v>
       </c>
       <c r="I47" t="n">
-        <v>520.9400000000001</v>
+        <v>277.29</v>
       </c>
       <c r="J47" t="n">
-        <v>406.73</v>
+        <v>209.48</v>
       </c>
       <c r="K47" t="n">
-        <v>916.54</v>
+        <v>580.1</v>
       </c>
       <c r="L47" t="n">
-        <v>222.39</v>
+        <v>159.42</v>
       </c>
       <c r="M47" t="n">
-        <v>343.08</v>
+        <v>199.14</v>
       </c>
       <c r="N47" t="n">
-        <v>113.75</v>
+        <v>78.3</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>7194.43</v>
+        <v>4304.22</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>268.98</v>
+        <v>145.08</v>
       </c>
       <c r="S47" t="n">
-        <v>148.01</v>
+        <v>106.85</v>
       </c>
       <c r="T47" t="n">
-        <v>75.56</v>
+        <v>52.96</v>
       </c>
       <c r="U47" t="n">
-        <v>463.47</v>
+        <v>253.83</v>
       </c>
       <c r="V47" t="n">
-        <v>5.27</v>
+        <v>3.55</v>
+      </c>
+      <c r="W47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1471.5</v>
+      </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>104.27</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>248.01</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>159.52</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>122.27</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>383.9400000000001</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>109.05</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>123.12</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="n">
+        <v>2613.45</v>
+      </c>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="n">
+        <v>92.32000000000002</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>77.28</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>159.72</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25.39</v>
+        <v>40.24</v>
       </c>
       <c r="C48" t="n">
-        <v>2489.64</v>
+        <v>4211.76</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>139.69</v>
+        <v>232.04</v>
       </c>
       <c r="F48" t="n">
-        <v>186.86</v>
+        <v>267.99</v>
       </c>
       <c r="G48" t="n">
-        <v>384.26</v>
+        <v>625.46</v>
       </c>
       <c r="H48" t="n">
-        <v>55.79</v>
+        <v>118.93</v>
       </c>
       <c r="I48" t="n">
-        <v>277.29</v>
+        <v>520.9400000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>209.48</v>
+        <v>406.73</v>
       </c>
       <c r="K48" t="n">
-        <v>580.1</v>
+        <v>916.54</v>
       </c>
       <c r="L48" t="n">
-        <v>159.42</v>
+        <v>222.39</v>
       </c>
       <c r="M48" t="n">
-        <v>199.14</v>
+        <v>343.08</v>
       </c>
       <c r="N48" t="n">
-        <v>78.3</v>
+        <v>113.75</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>4304.22</v>
+        <v>7194.43</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>145.08</v>
+        <v>268.98</v>
       </c>
       <c r="S48" t="n">
-        <v>106.85</v>
+        <v>148.01</v>
       </c>
       <c r="T48" t="n">
-        <v>52.96</v>
+        <v>75.56</v>
       </c>
       <c r="U48" t="n">
-        <v>253.83</v>
+        <v>463.47</v>
       </c>
       <c r="V48" t="n">
-        <v>3.55</v>
+        <v>5.27</v>
+      </c>
+      <c r="W48" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1722.12</v>
+      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="n">
+        <v>92.34999999999999</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>81.13</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>241.2</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>63.14000000000001</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>243.65</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>197.25</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>336.4399999999999</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>62.97</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>143.94</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="n">
+        <v>2890.21</v>
+      </c>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>209.64</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3323,11 +5819,68 @@
       <c r="V49" t="n">
         <v>9.41</v>
       </c>
+      <c r="W49" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="X49" t="n">
+        <v>4000.99</v>
+      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="n">
+        <v>218.7</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>302.27</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>447.5799999999999</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>537.3099999999999</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>461.88</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>730.4400000000001</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>404.94</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>47.78999999999999</v>
+      </c>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="n">
+        <v>6658.559999999999</v>
+      </c>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="n">
+        <v>280.0799999999999</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>160.08</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>449.14</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>4.140000000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3387,139 +5940,310 @@
       <c r="V50" t="n">
         <v>6.07</v>
       </c>
+      <c r="W50" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="X50" t="n">
+        <v>985.41</v>
+      </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>117.35</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>124.89</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>85.02</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>151.65</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>77.13</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="n">
+        <v>1591.83</v>
+      </c>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="n">
+        <v>69.95999999999999</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>129.57</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>6.07</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>33.71</v>
+        <v>10.44</v>
       </c>
       <c r="C51" t="n">
-        <v>4264.39</v>
+        <v>2551.4</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>172.3</v>
+        <v>101.13</v>
       </c>
       <c r="F51" t="n">
-        <v>234.76</v>
+        <v>122.17</v>
       </c>
       <c r="G51" t="n">
-        <v>569.29</v>
+        <v>341.84</v>
       </c>
       <c r="H51" t="n">
-        <v>134.14</v>
+        <v>94.27</v>
       </c>
       <c r="I51" t="n">
-        <v>562.02</v>
+        <v>340.35</v>
       </c>
       <c r="J51" t="n">
-        <v>441.95</v>
+        <v>248.07</v>
       </c>
       <c r="K51" t="n">
-        <v>829.0700000000001</v>
+        <v>520.4299999999999</v>
       </c>
       <c r="L51" t="n">
-        <v>94.98999999999999</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="M51" t="n">
-        <v>493.97</v>
+        <v>308.82</v>
       </c>
       <c r="N51" t="n">
-        <v>46.97</v>
+        <v>25.97</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
-        <v>7171.96</v>
+        <v>4279.74</v>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>315.71</v>
+        <v>200.2</v>
       </c>
       <c r="S51" t="n">
-        <v>177.75</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="T51" t="n">
-        <v>51.13</v>
+        <v>32.72</v>
       </c>
       <c r="U51" t="n">
-        <v>500.97</v>
+        <v>327.18</v>
       </c>
       <c r="V51" t="n">
-        <v>20.84</v>
+        <v>20.01</v>
+      </c>
+      <c r="W51" t="n">
+        <v>4.029999999999999</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1565.99</v>
+      </c>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="n">
+        <v>56.48999999999999</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>224.49</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>215.46</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>163.05</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>368.78</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>49.58</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>231.69</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="n">
+        <v>2687.91</v>
+      </c>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="n">
+        <v>130.24</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>39.27000000000001</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>197.61</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>13.94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10.44</v>
+        <v>33.71</v>
       </c>
       <c r="C52" t="n">
-        <v>2551.4</v>
+        <v>4264.39</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>101.13</v>
+        <v>172.3</v>
       </c>
       <c r="F52" t="n">
-        <v>122.17</v>
+        <v>234.76</v>
       </c>
       <c r="G52" t="n">
-        <v>341.84</v>
+        <v>569.29</v>
       </c>
       <c r="H52" t="n">
-        <v>94.27</v>
+        <v>134.14</v>
       </c>
       <c r="I52" t="n">
-        <v>340.35</v>
+        <v>562.02</v>
       </c>
       <c r="J52" t="n">
-        <v>248.07</v>
+        <v>441.95</v>
       </c>
       <c r="K52" t="n">
-        <v>520.4299999999999</v>
+        <v>829.0700000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>64.48999999999999</v>
+        <v>94.98999999999999</v>
       </c>
       <c r="M52" t="n">
-        <v>308.82</v>
+        <v>493.97</v>
       </c>
       <c r="N52" t="n">
-        <v>25.97</v>
+        <v>46.97</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
-        <v>4279.74</v>
+        <v>7171.96</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>200.2</v>
+        <v>315.71</v>
       </c>
       <c r="S52" t="n">
-        <v>65.93000000000001</v>
+        <v>177.75</v>
       </c>
       <c r="T52" t="n">
-        <v>32.72</v>
+        <v>51.13</v>
       </c>
       <c r="U52" t="n">
-        <v>327.18</v>
+        <v>500.97</v>
       </c>
       <c r="V52" t="n">
-        <v>20.01</v>
+        <v>20.84</v>
+      </c>
+      <c r="W52" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1712.99</v>
+      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="n">
+        <v>71.17000000000002</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>112.59</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>227.45</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>39.86999999999999</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>221.67</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>193.88</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>308.6400000000001</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>185.15</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="n">
+        <v>2892.22</v>
+      </c>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="n">
+        <v>115.51</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>111.82</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>173.79</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.8299999999999983</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3579,11 +6303,68 @@
       <c r="V53" t="n">
         <v>32.48</v>
       </c>
+      <c r="W53" t="n">
+        <v>43.43</v>
+      </c>
+      <c r="X53" t="n">
+        <v>3866.349999999999</v>
+      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="n">
+        <v>284.91</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>339.63</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>459.1200000000001</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>120.24</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>624.9000000000001</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>397.66</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>779.91</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>56.06000000000002</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>369.6899999999999</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>57.61</v>
+      </c>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="n">
+        <v>6786.97</v>
+      </c>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="n">
+        <v>372.1300000000001</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>139.77</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>41.46</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>533.8499999999999</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>11.64</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3643,139 +6424,310 @@
       <c r="V54" t="n">
         <v>2.08</v>
       </c>
+      <c r="W54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1051.13</v>
+      </c>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="n">
+        <v>47.87</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>52.19</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>219.71</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>175.92</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>167.57</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="n">
+        <v>1819.8</v>
+      </c>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="n">
+        <v>63.57</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>124.66</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28.83</v>
+        <v>11.33</v>
       </c>
       <c r="C55" t="n">
-        <v>4765.18</v>
+        <v>3109.38</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>489.42</v>
+        <v>186.97</v>
       </c>
       <c r="F55" t="n">
-        <v>399.61</v>
+        <v>176.81</v>
       </c>
       <c r="G55" t="n">
-        <v>596.17</v>
+        <v>443.29</v>
       </c>
       <c r="H55" t="n">
-        <v>165.15</v>
+        <v>76</v>
       </c>
       <c r="I55" t="n">
-        <v>734.98</v>
+        <v>440.22</v>
       </c>
       <c r="J55" t="n">
-        <v>607.08</v>
+        <v>353.18</v>
       </c>
       <c r="K55" t="n">
-        <v>1321.59</v>
+        <v>516.03</v>
       </c>
       <c r="L55" t="n">
-        <v>102.63</v>
+        <v>69.77</v>
       </c>
       <c r="M55" t="n">
-        <v>606.5</v>
+        <v>223.07</v>
       </c>
       <c r="N55" t="n">
-        <v>114.46</v>
+        <v>31.21</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>8718.549999999999</v>
+        <v>5062.87</v>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>355.24</v>
+        <v>164.04</v>
       </c>
       <c r="S55" t="n">
-        <v>272.49</v>
+        <v>100.66</v>
       </c>
       <c r="T55" t="n">
-        <v>79.31</v>
+        <v>25.1</v>
       </c>
       <c r="U55" t="n">
-        <v>599.7</v>
+        <v>265.14</v>
       </c>
       <c r="V55" t="n">
-        <v>8.58</v>
+        <v>5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>8.030000000000001</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2058.25</v>
+      </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>124.62</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>223.58</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>264.3000000000001</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>223.28</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>348.46</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>153.01</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="n">
+        <v>3243.07</v>
+      </c>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="n">
+        <v>100.47</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>75.34</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>140.48</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11.33</v>
+        <v>28.83</v>
       </c>
       <c r="C56" t="n">
-        <v>3109.38</v>
+        <v>4765.18</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>186.97</v>
+        <v>489.42</v>
       </c>
       <c r="F56" t="n">
-        <v>176.81</v>
+        <v>399.61</v>
       </c>
       <c r="G56" t="n">
-        <v>443.29</v>
+        <v>596.17</v>
       </c>
       <c r="H56" t="n">
-        <v>76</v>
+        <v>165.15</v>
       </c>
       <c r="I56" t="n">
-        <v>440.22</v>
+        <v>734.98</v>
       </c>
       <c r="J56" t="n">
-        <v>353.18</v>
+        <v>607.08</v>
       </c>
       <c r="K56" t="n">
-        <v>516.03</v>
+        <v>1321.59</v>
       </c>
       <c r="L56" t="n">
-        <v>69.77</v>
+        <v>102.63</v>
       </c>
       <c r="M56" t="n">
-        <v>223.07</v>
+        <v>606.5</v>
       </c>
       <c r="N56" t="n">
-        <v>31.21</v>
+        <v>114.46</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>5062.87</v>
+        <v>8718.549999999999</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>164.04</v>
+        <v>355.24</v>
       </c>
       <c r="S56" t="n">
-        <v>100.66</v>
+        <v>272.49</v>
       </c>
       <c r="T56" t="n">
-        <v>25.1</v>
+        <v>79.31</v>
       </c>
       <c r="U56" t="n">
-        <v>265.14</v>
+        <v>599.7</v>
       </c>
       <c r="V56" t="n">
-        <v>5</v>
+        <v>8.58</v>
+      </c>
+      <c r="W56" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1655.8</v>
+      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="n">
+        <v>302.45</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>152.8799999999999</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>89.15000000000001</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>294.76</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>805.5599999999999</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>383.43</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="n">
+        <v>3655.679999999999</v>
+      </c>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>171.83</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>334.5600000000001</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3835,11 +6787,68 @@
       <c r="V57" t="n">
         <v>16.01</v>
       </c>
+      <c r="W57" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="X57" t="n">
+        <v>4306.75</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="n">
+        <v>313.5099999999999</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>300.85</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>572.14</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>137.88</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>675.03</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>524.13</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>847.0800000000002</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>356.1</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>60.65000000000002</v>
+      </c>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="n">
+        <v>7521.280000000001</v>
+      </c>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="n">
+        <v>402.55</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>168.97</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>622.99</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>7.430000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3899,139 +6908,310 @@
       <c r="V58" t="n">
         <v>0.20475</v>
       </c>
+      <c r="W58" t="n">
+        <v>8.84193</v>
+      </c>
+      <c r="X58" t="n">
+        <v>794.88212</v>
+      </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="n">
+        <v>51.94867</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>108.48539</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>106.89818</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>32.61451</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>131.06199</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>94.49213</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>130.59385</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>7.85752</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>50.93683</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>19.64608</v>
+      </c>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="n">
+        <v>1426.63506</v>
+      </c>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="n">
+        <v>58.23825</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>42.34229</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>12.67655</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>103.52931</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.20475</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>46.56579</v>
+        <v>25.23418</v>
       </c>
       <c r="C59" t="n">
-        <v>4927.89288</v>
+        <v>2561.68863</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>200.97814</v>
+        <v>92.43013999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>448.6548</v>
+        <v>372.61846</v>
       </c>
       <c r="G59" t="n">
-        <v>467.11241</v>
+        <v>307.9664</v>
       </c>
       <c r="H59" t="n">
-        <v>188.32173</v>
+        <v>118.88005</v>
       </c>
       <c r="I59" t="n">
-        <v>715.13544</v>
+        <v>355.14356</v>
       </c>
       <c r="J59" t="n">
-        <v>493.78112</v>
+        <v>263.91636</v>
       </c>
       <c r="K59" t="n">
-        <v>797.55753</v>
+        <v>404.35615</v>
       </c>
       <c r="L59" t="n">
-        <v>71.76165</v>
+        <v>54.43576</v>
       </c>
       <c r="M59" t="n">
-        <v>459.17908</v>
+        <v>210.98702</v>
       </c>
       <c r="N59" t="n">
-        <v>62.19022</v>
+        <v>26.32912</v>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>8352.262290000001</v>
+        <v>4585.33135</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>502.52017</v>
+        <v>254.80245</v>
       </c>
       <c r="S59" t="n">
-        <v>183.5741</v>
+        <v>141.13936</v>
       </c>
       <c r="T59" t="n">
-        <v>74.92744</v>
+        <v>43.50211</v>
       </c>
       <c r="U59" t="n">
-        <v>765.7693400000001</v>
+        <v>417.18461</v>
       </c>
       <c r="V59" t="n">
-        <v>3.44844</v>
+        <v>20.17411</v>
+      </c>
+      <c r="W59" t="n">
+        <v>16.39225</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1766.80651</v>
+      </c>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="n">
+        <v>40.48146999999999</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>264.13307</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>201.06822</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>86.26553999999999</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>224.08157</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>169.42423</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>273.7623</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>46.57824</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>160.05019</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>6.683039999999998</v>
+      </c>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="n">
+        <v>3158.69629</v>
+      </c>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="n">
+        <v>196.5642</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>98.79707000000002</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>30.82556</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>313.6553</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>19.96936</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>25.23418</v>
+        <v>46.56579</v>
       </c>
       <c r="C60" t="n">
-        <v>2561.68863</v>
+        <v>4927.89288</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>92.43013999999999</v>
+        <v>200.97814</v>
       </c>
       <c r="F60" t="n">
-        <v>372.61846</v>
+        <v>448.6548</v>
       </c>
       <c r="G60" t="n">
-        <v>307.9664</v>
+        <v>467.11241</v>
       </c>
       <c r="H60" t="n">
-        <v>118.88005</v>
+        <v>188.32173</v>
       </c>
       <c r="I60" t="n">
-        <v>355.14356</v>
+        <v>715.13544</v>
       </c>
       <c r="J60" t="n">
-        <v>263.91636</v>
+        <v>493.78112</v>
       </c>
       <c r="K60" t="n">
-        <v>404.35615</v>
+        <v>797.55753</v>
       </c>
       <c r="L60" t="n">
-        <v>54.43576</v>
+        <v>71.76165</v>
       </c>
       <c r="M60" t="n">
-        <v>210.98702</v>
+        <v>459.17908</v>
       </c>
       <c r="N60" t="n">
-        <v>26.32912</v>
+        <v>62.19022</v>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>4585.33135</v>
+        <v>8352.262290000001</v>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>254.80245</v>
+        <v>502.52017</v>
       </c>
       <c r="S60" t="n">
-        <v>141.13936</v>
+        <v>183.5741</v>
       </c>
       <c r="T60" t="n">
-        <v>43.50211</v>
+        <v>74.92744</v>
       </c>
       <c r="U60" t="n">
-        <v>417.18461</v>
+        <v>765.7693400000001</v>
       </c>
       <c r="V60" t="n">
-        <v>20.17411</v>
+        <v>3.44844</v>
+      </c>
+      <c r="W60" t="n">
+        <v>21.33161</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2366.20425</v>
+      </c>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="n">
+        <v>108.548</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>76.03634</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>159.14601</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>69.44168000000001</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>359.99188</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>229.86476</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>393.20138</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>17.32589</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>248.19206</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>35.86109999999999</v>
+      </c>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="n">
+        <v>3766.93094</v>
+      </c>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="n">
+        <v>247.71772</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>42.43473999999998</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>31.42533</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>348.58473</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>3.44844</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4091,11 +7271,68 @@
       <c r="V61" t="n">
         <v>23.89986</v>
       </c>
+      <c r="W61" t="n">
+        <v>57.27748</v>
+      </c>
+      <c r="X61" t="n">
+        <v>4912.51906</v>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>486.53918</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>501.72155</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>537.61393</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>221.10891</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>750.9715100000001</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>573.93726</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>902.4172100000001</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>124.19464</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>185.1327199999999</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>86.09925</v>
+      </c>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="n">
+        <v>8732.423270000001</v>
+      </c>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="n">
+        <v>573.4767999999999</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>198.63465</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>76.68217</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>871.2678799999999</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>20.45142</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4155,139 +7392,310 @@
       <c r="V62" t="n">
         <v>0.22277</v>
       </c>
+      <c r="W62" t="n">
+        <v>36.3926</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1263.50854</v>
+      </c>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
+        <v>79.53532</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>156.68398</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>211.29017</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>66.85996</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>235.26894</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>180.9227</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>234.06484</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>6.51719</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>139.56979</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>8.21977</v>
+      </c>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="n">
+        <v>2419.42269</v>
+      </c>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="n">
+        <v>142.83197</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>57.77973</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>14.74196</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>224.43389</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.22277</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>89.95084</v>
+        <v>70.21678</v>
       </c>
       <c r="C63" t="n">
-        <v>6406.77202</v>
+        <v>3587.58807</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>371.44376</v>
+        <v>212.5142</v>
       </c>
       <c r="F63" t="n">
-        <v>722.09498</v>
+        <v>466.16087</v>
       </c>
       <c r="G63" t="n">
-        <v>759.20402</v>
+        <v>420.4341</v>
       </c>
       <c r="H63" t="n">
-        <v>389.95462</v>
+        <v>188.56488</v>
       </c>
       <c r="I63" t="n">
-        <v>1177.79623</v>
+        <v>678.41407</v>
       </c>
       <c r="J63" t="n">
-        <v>746.24698</v>
+        <v>511.03461</v>
       </c>
       <c r="K63" t="n">
-        <v>1052.46625</v>
+        <v>584.02501</v>
       </c>
       <c r="L63" t="n">
-        <v>56.91596</v>
+        <v>35.33536</v>
       </c>
       <c r="M63" t="n">
-        <v>516.9713</v>
+        <v>267.05611</v>
       </c>
       <c r="N63" t="n">
-        <v>93.7433</v>
+        <v>62.43382</v>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>11959.00373</v>
+        <v>6655.10402</v>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>860.07339</v>
+        <v>406.1999</v>
       </c>
       <c r="S63" t="n">
-        <v>397.90445</v>
+        <v>204.05128</v>
       </c>
       <c r="T63" t="n">
-        <v>102.78693</v>
+        <v>49.44906</v>
       </c>
       <c r="U63" t="n">
-        <v>1352.81494</v>
+        <v>644.21384</v>
       </c>
       <c r="V63" t="n">
-        <v>13.39193</v>
+        <v>6.68552</v>
+      </c>
+      <c r="W63" t="n">
+        <v>33.82418</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2324.07953</v>
+      </c>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="n">
+        <v>132.97888</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>309.47689</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>209.14393</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>121.70492</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>443.1451300000001</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>330.11191</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>349.9601699999999</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>28.81817</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>127.48632</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>54.21405</v>
+      </c>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="n">
+        <v>4235.681329999999</v>
+      </c>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="n">
+        <v>263.36793</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>146.27155</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>34.7071</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>419.77995</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>6.462750000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>70.21678</v>
+        <v>89.95084</v>
       </c>
       <c r="C64" t="n">
-        <v>3587.58807</v>
+        <v>6406.77202</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>212.5142</v>
+        <v>371.44376</v>
       </c>
       <c r="F64" t="n">
-        <v>466.16087</v>
+        <v>722.09498</v>
       </c>
       <c r="G64" t="n">
-        <v>420.4341</v>
+        <v>759.20402</v>
       </c>
       <c r="H64" t="n">
-        <v>188.56488</v>
+        <v>389.95462</v>
       </c>
       <c r="I64" t="n">
-        <v>678.41407</v>
+        <v>1177.79623</v>
       </c>
       <c r="J64" t="n">
-        <v>511.03461</v>
+        <v>746.24698</v>
       </c>
       <c r="K64" t="n">
-        <v>584.02501</v>
+        <v>1052.46625</v>
       </c>
       <c r="L64" t="n">
-        <v>35.33536</v>
+        <v>56.91596</v>
       </c>
       <c r="M64" t="n">
-        <v>267.05611</v>
+        <v>516.9713</v>
       </c>
       <c r="N64" t="n">
-        <v>62.43382</v>
+        <v>93.7433</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>6655.10402</v>
+        <v>11959.00373</v>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>406.1999</v>
+        <v>860.07339</v>
       </c>
       <c r="S64" t="n">
-        <v>204.05128</v>
+        <v>397.90445</v>
       </c>
       <c r="T64" t="n">
-        <v>49.44906</v>
+        <v>102.78693</v>
       </c>
       <c r="U64" t="n">
-        <v>644.21384</v>
+        <v>1352.81494</v>
       </c>
       <c r="V64" t="n">
-        <v>6.68552</v>
+        <v>13.39193</v>
+      </c>
+      <c r="W64" t="n">
+        <v>19.73406</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2819.183950000001</v>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="n">
+        <v>158.92956</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>255.93411</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>338.76992</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>201.38974</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>499.3821599999999</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>235.21237</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>468.44124</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>21.5806</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>249.9151900000001</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>31.30948000000001</v>
+      </c>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="n">
+        <v>5303.899710000001</v>
+      </c>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="n">
+        <v>453.87349</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>193.85317</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>53.33787</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>708.6011</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>6.70641</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4346,6 +7754,63 @@
       </c>
       <c r="V65" t="n">
         <v>19.13046</v>
+      </c>
+      <c r="W65" t="n">
+        <v>66.82590999999999</v>
+      </c>
+      <c r="X65" t="n">
+        <v>5765.454889999999</v>
+      </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="n">
+        <v>280.81631</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>477.2584499999999</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>706.64125</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>262.03324</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1020.1856</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>865.5596199999999</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>904.5671</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>149.32326</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>393.19805</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>75.49095</v>
+      </c>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="n">
+        <v>10368.26227</v>
+      </c>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="n">
+        <v>693.5921499999999</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>355.51347</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>116.19021</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1071.8156</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>5.738529999999999</v>
       </c>
     </row>
   </sheetData>
